--- a/biology/Zoologie/Euarchontoglires/Euarchontoglires.xlsx
+++ b/biology/Zoologie/Euarchontoglires/Euarchontoglires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euarchontoglires sont un clade de mammifères placentaires que des analyses phylogénétiques relativement récentes ont fait découvrir. L'appartenance à ce clade est définie par un motif déterminé de marqueurs génétiques de type rétrotransposon contenus dans l'ADN de l'espèce.
-Les phylogénies moléculaires, fondées sur toute une variété de gènes nucléaires et mitochondriaux, confirment ce clade[1].
+Les phylogénies moléculaires, fondées sur toute une variété de gènes nucléaires et mitochondriaux, confirment ce clade.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il regroupe les taxons des rongeurs, lapins, lièvres… avec celui des toupayes, des primates et des lémurs volants : Glires et Euarchonta.
 Les Euarchontoglires se sont certainement différenciés du groupe frère des Laurasiatheria il y a environ 85 à 95 Ma durant le Crétacé. Cette hypothèse satisfait aussi bien les conclusions de la recherche génétique que celles de la paléontologie.
@@ -557,7 +571,9 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Galeopterus variegatus (Dermoptera)
@@ -593,7 +609,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) William J. Murphy, Eduardo Eizirik, Stephen J. O'Brien, Ole Madsen, Mark Scally, Christophe J. Douady, Emma Teeling, Oliver A. Ryder, Michael J. Stanhope, Wilfried W. de Jong et Mark S. Springer, « Resolution of the early placental mammal radiation using Bayesian phylogenetics », Science, Amérique septentrionale, AAAS, vol. 294, no 5550,‎ 14 décembre 2001, p. 2348-51 (ISSN 0036-8075 et 1095-9203, OCLC 1644869, PMID 11743200, DOI 10.1126/SCIENCE.1067179, lire en ligne)</t>
         </is>
